--- a/indicadores_grupo_linhares.xlsx
+++ b/indicadores_grupo_linhares.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.lima\Documents\projetos\dashIndicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691BB5DA-D139-48D2-8FF0-2E38CBFA1922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAC797D-6495-48C5-B635-AFD1D9347A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Automação</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Data da Entrega</t>
+  </si>
+  <si>
+    <t>Horas Manuais</t>
+  </si>
+  <si>
+    <t>Horas Robô</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,11 +446,12 @@
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,13 +468,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -483,14 +496,22 @@
       <c r="E2">
         <v>44</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
+        <v>1.5</v>
+      </c>
+      <c r="G2">
+        <v>0.27</v>
+      </c>
+      <c r="H2" s="3">
+        <f>F2-G2</f>
         <v>1.23</v>
       </c>
-      <c r="G2">
-        <v>82.22</v>
+      <c r="I2" s="3">
+        <f>(H2*100)/F2</f>
+        <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -506,14 +527,22 @@
       <c r="E3">
         <v>23</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H5" si="0">F3-G3</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G3">
-        <v>55</v>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I5" si="1">(H3*100)/F3</f>
+        <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -529,14 +558,22 @@
       <c r="E4">
         <v>23</v>
       </c>
-      <c r="F4" s="3">
-        <v>1.06</v>
+      <c r="F4">
+        <v>1.7</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="1"/>
+        <v>64.705882352941188</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -552,11 +589,19 @@
       <c r="E5">
         <v>15</v>
       </c>
-      <c r="F5" s="3">
-        <v>1.65</v>
+      <c r="F5">
+        <v>0.7</v>
       </c>
       <c r="G5">
-        <v>98.75</v>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>98.714285714285708</v>
       </c>
     </row>
   </sheetData>
